--- a/test-data/spreadsheet/WithTextBox.xlsx
+++ b/test-data/spreadsheet/WithTextBox.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="24240" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,109 +170,6 @@
               <a:srgbClr val="0000FF"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905000" y="457200"/>
-          <a:ext cx="4838700" cy="2609850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>content1A</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="628650" lvl="1" indent="-171450">
-            <a:buFont typeface="Arial" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>content2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="1085850" lvl="2" indent="-171450">
-            <a:buFont typeface="Arial" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>content3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" lvl="0" indent="-171450">
-            <a:buFont typeface="Arial" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>content1B</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -577,8 +474,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -586,15 +482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -607,6 +499,5 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>